--- a/Excel/镇魂街/national_global国战全局.xlsx
+++ b/Excel/镇魂街/national_global国战全局.xlsx
@@ -15,7 +15,7 @@
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="国战-全局表" sheetId="32" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
   <si>
     <t>sheet名</t>
   </si>
@@ -233,6 +233,102 @@
   </si>
   <si>
     <t>1,0.3#2,0.3#3,0#4,0#5,0#6,0</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuickReturn</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍-立即返回消耗钻石</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍-采集所需时间(秒)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollectTime</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>国战PVP战斗回合限制</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>NaPveRoundLimit</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>国战PVE战斗回合限制</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>NaPvpRoundLimit</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍-采集消耗行动力</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍-采集消耗军令</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollectCost</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollectDecree</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技-付费队列数量上限</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>TechQueue</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技-研发队列数量</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>TechPayCost</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技-付费队列购买消耗钻石</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>TechPayQueue</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标-收藏改名字符限制</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标-收藏数量上限</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>PointNumLimit</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>PointNameLimit</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP_MAX</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动力-卡牌基础上限</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -858,7 +954,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1039,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="7">
-        <v>8.6999999999999993</v>
+        <v>2</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1060,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="7">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -1068,132 +1164,252 @@
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="A9" s="7">
+        <v>20006</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>20</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="A10" s="7">
+        <v>20007</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
+        <v>300</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="A11" s="7">
+        <v>20008</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>15</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="9"/>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="A12" s="7">
+        <v>20009</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>15</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="A13" s="7">
+        <v>20010</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
+        <v>20</v>
+      </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="A14" s="7">
+        <v>20011</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7">
+        <v>3</v>
+      </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="A15" s="7">
+        <v>20012</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2</v>
+      </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="A16" s="7">
+        <v>20013</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7">
+        <v>50</v>
+      </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="A17" s="7">
+        <v>20014</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2</v>
+      </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="9"/>
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="A18" s="7">
+        <v>20015</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7">
+        <v>10</v>
+      </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="9"/>
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="A19" s="7">
+        <v>20016</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7">
+        <v>10</v>
+      </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="A20" s="7">
+        <v>20017</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7">
+        <v>100</v>
+      </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>

--- a/Excel/镇魂街/national_global国战全局.xlsx
+++ b/Excel/镇魂街/national_global国战全局.xlsx
@@ -232,10 +232,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>1,0.3#2,0.3#3,0#4,0#5,0#6,0</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>QuickReturn</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -329,6 +325,10 @@
   </si>
   <si>
     <t>行动力-卡牌基础上限</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3#0.3#0#0#0#0</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -954,7 +954,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1075,7 +1075,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="I4" s="7"/>
     </row>
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="7">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1114,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="7">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1168,10 +1168,10 @@
         <v>20006</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="D9" s="7">
         <v>1</v>
@@ -1189,10 +1189,10 @@
         <v>20007</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -1210,10 +1210,10 @@
         <v>20008</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -1231,10 +1231,10 @@
         <v>20009</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -1252,10 +1252,10 @@
         <v>20010</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="7">
         <v>1</v>
@@ -1273,10 +1273,10 @@
         <v>20011</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="7">
         <v>1</v>
@@ -1294,10 +1294,10 @@
         <v>20012</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="D15" s="7">
         <v>1</v>
@@ -1315,10 +1315,10 @@
         <v>20013</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="D16" s="7">
         <v>1</v>
@@ -1336,10 +1336,10 @@
         <v>20014</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="7">
         <v>1</v>
@@ -1357,10 +1357,10 @@
         <v>20015</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="7">
         <v>1</v>
@@ -1378,10 +1378,10 @@
         <v>20016</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="7">
         <v>1</v>
@@ -1399,10 +1399,10 @@
         <v>20017</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="D20" s="7">
         <v>1</v>

--- a/Excel/镇魂街/national_global国战全局.xlsx
+++ b/Excel/镇魂街/national_global国战全局.xlsx
@@ -954,7 +954,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="7">
-        <v>2</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1114,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="7">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1135,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="7">
-        <v>2</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1156,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="7">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -1198,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="7">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>

--- a/Excel/镇魂街/national_global国战全局.xlsx
+++ b/Excel/镇魂街/national_global国战全局.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
   <si>
     <t>sheet名</t>
   </si>
@@ -273,6 +273,78 @@
   </si>
   <si>
     <t>需卡牌兵力大于X时，进行停止招募、下阵时才会返还资源。</t>
+  </si>
+  <si>
+    <t>GlobalCostLimit</t>
+  </si>
+  <si>
+    <t>初始队伍cost限制</t>
+  </si>
+  <si>
+    <t>EscRate</t>
+  </si>
+  <si>
+    <t>战后兵力/可携带兵力上限&lt;该值，队伍进入败退状态</t>
+  </si>
+  <si>
+    <t>DamageLimit</t>
+  </si>
+  <si>
+    <t>战后兵力/可携带兵力上限&lt;该值，队伍进入重伤状态</t>
+  </si>
+  <si>
+    <t>ForceRatioc</t>
+  </si>
+  <si>
+    <t>卡牌战力折算系数c</t>
+  </si>
+  <si>
+    <t>AtkRatiob</t>
+  </si>
+  <si>
+    <t>攻击系数b</t>
+  </si>
+  <si>
+    <t>AtkRatioa</t>
+  </si>
+  <si>
+    <t>攻击系数a</t>
+  </si>
+  <si>
+    <t>StatusRecord</t>
+  </si>
+  <si>
+    <t>pve守军恢复状态时间限制（秒）</t>
+  </si>
+  <si>
+    <t>BattlePause</t>
+  </si>
+  <si>
+    <t>播战斗动画的间隔时间（秒）</t>
+  </si>
+  <si>
+    <t>InitalArmyLimit</t>
+  </si>
+  <si>
+    <t>初始兵力上限增加量</t>
+  </si>
+  <si>
+    <t>InitalArmyCount</t>
+  </si>
+  <si>
+    <t>初始兵力</t>
+  </si>
+  <si>
+    <t>AtkRatiod</t>
+  </si>
+  <si>
+    <t>攻击系数d</t>
+  </si>
+  <si>
+    <t>FirstMarch</t>
+  </si>
+  <si>
+    <t>新手引导出征行军时间（秒）</t>
   </si>
 </sst>
 </file>
@@ -280,12 +352,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +379,82 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -315,45 +463,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,46 +479,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,34 +493,47 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -464,37 +552,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,19 +574,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34934537797174"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,67 +700,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149906918546098"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,121 +778,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149906918546098"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797174"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,6 +807,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -767,70 +880,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,11 +909,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -862,10 +921,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -877,157 +936,157 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" applyFont="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="1" applyFont="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1476,14 +1535,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1492,7 +1551,7 @@
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
     <col min="3" max="3" width="64.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
+    <col min="5" max="5" width="9.25" style="1"/>
     <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
     <col min="8" max="8" width="77.25" style="1" customWidth="1"/>
@@ -1894,6 +1953,210 @@
         <v>100</v>
       </c>
     </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>20019</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>20020</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>20021</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>20022</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>20023</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>20024</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>20025</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>20026</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>20027</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>20028</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>20029</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>20030</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
